--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-current-medication-medicationstatement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-current-medication-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:37:35+00:00</t>
+    <t>2025-09-17T08:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-current-medication-medicationstatement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-current-medication-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T08:51:55+00:00</t>
+    <t>2025-09-23T12:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-current-medication-medicationstatement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-current-medication-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:31:20+00:00</t>
+    <t>2025-09-23T14:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-current-medication-medicationstatement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-current-medication-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:36:30+00:00</t>
+    <t>2025-10-23T12:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3296,7 +3296,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>167</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>194</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>215</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>231</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>243</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>314</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>400</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>416</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>424</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>433</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>441</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>449</v>
       </c>
@@ -8660,12 +8660,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN60">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-current-medication-medicationstatement.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-current-medication-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:45:10+00:00</t>
+    <t>2025-10-23T14:53:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
